--- a/Basic function/excel-if-function .xlsx
+++ b/Basic function/excel-if-function .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel_tutorial\Basic function\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel\Basic function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IF function - Examples" sheetId="26" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="If error" sheetId="25" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -593,13 +592,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,7 +655,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId3"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -710,7 +709,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1013,19 +1012,19 @@
     <row r="2" spans="1:7" ht="20.25" customHeight="1"/>
     <row r="3" spans="1:7" ht="15" customHeight="1"/>
     <row r="4" spans="1:7" ht="35.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="45.75" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="18" t="s">
@@ -1056,7 +1055,7 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="19"/>
@@ -1810,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1934,7 +1933,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2444,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +2739,7 @@
       </c>
       <c r="E1" s="5" t="str">
         <f ca="1">"Today is "&amp;TEXT(TODAY(), "dd-mmm-yy")</f>
-        <v>Today is 20-Nov-24</v>
+        <v>Today is 27-Jan-25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
